--- a/functions/menus/menu3 - Copy (2).xlsx
+++ b/functions/menus/menu3 - Copy (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aknar\Documents\GitHub\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B592BF-E454-46AC-83DB-569B26B44236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{16B592BF-E454-46AC-83DB-569B26B44236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D3DA7C8-664A-434C-B8BF-A11499840338}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="13" activeTab="16" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="315">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -973,6 +973,30 @@
   </si>
   <si>
     <t>CHICKEN NUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE </t>
+  </si>
+  <si>
+    <t>CANE</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ICE CREAM</t>
+  </si>
+  <si>
+    <t>VEG. BOOLET</t>
+  </si>
+  <si>
+    <t>WATER 200ML</t>
+  </si>
+  <si>
+    <t>COLDRENK600ML</t>
+  </si>
+  <si>
+    <t>JUICE</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD66CD1-9B55-47F1-8B3F-91037A9DB16B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,6 +1513,78 @@
         <v>90</v>
       </c>
       <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1868,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA03EAE9-C41A-4E6A-BAE1-36DF1529E37B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
@@ -2290,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B845CAB-F7E7-41BC-9A51-2B06B3733F4A}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,6 +2464,14 @@
       </c>
       <c r="B9" s="1">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2489,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E0540D-4BB5-415A-B15C-ECA8B8804668}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B44"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,6 +2951,14 @@
       </c>
       <c r="B44" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" s="1">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
